--- a/数据整理/stocks/港股/02196-复星医药.xlsx
+++ b/数据整理/stocks/港股/02196-复星医药.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010667</t>
+          <t>008954</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>安信价值回报三年持有期混合C</t>
+          <t>安信价值回报三年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>37.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>90.39</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.44</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0427</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001942</t>
+          <t>001943</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>20.21</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>0.88</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001943</t>
+          <t>001942</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>20.21</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>0.88</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -576,25 +616,33 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008954</t>
+          <t>010667</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>安信价值回报三年持有期混合A</t>
+          <t>安信价值回报三年持有期混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>90.39</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>5.44</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
     </row>
@@ -609,7 +657,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +678,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -660,15 +718,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>35.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>89.14</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.18</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8498</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -686,17 +754,21 @@
           <t>安信价值回报三年持有期混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>89.14</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.18</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02196-复星医药.xlsx
+++ b/数据整理/stocks/港股/02196-复星医药.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -754,7 +755,6 @@
           <t>安信价值回报三年持有期混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>89.14</t>
@@ -770,6 +770,250 @@
       </c>
       <c r="H3" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008954</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4404</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010481</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长精选2年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7075</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010599</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9690</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011259</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010667</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/02196-复星医药.xlsx
+++ b/数据整理/stocks/港股/02196-复星医药.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1019,4 +1020,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02196-复星医药.xlsx
+++ b/数据整理/stocks/港股/02196-复星医药.xlsx
@@ -1044,12 +1044,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/港股/02196-复星医药.xlsx
+++ b/数据整理/stocks/港股/02196-复星医药.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1028,7 +1029,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1039,17 +1040,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1059,14 +1080,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.16</v>
+          <t>014591</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0458</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1075,14 +1118,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.85</v>
+          <t>014592</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2162</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1091,13 +1156,173 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>2.07</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02196-复星医药.xlsx
+++ b/数据整理/stocks/港股/02196-复星医药.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,203 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008954</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>安信价值回报三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>37.55</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.39</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.0427</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001943</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源沪港深汇鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>20.21</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0202</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="D3" t="n">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001942</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源沪港深汇鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>20.21</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0073</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010667</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>安信价值回报三年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.39</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.07</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -660,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -681,7 +575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -711,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008954</t>
+          <t>014591</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>安信价值回报三年持有期混合A</t>
+          <t>广发瑞誉一年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>35.71</t>
+          <t>38.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.14</t>
+          <t>93.40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8498</t>
+          <t>2.0458</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -749,29 +643,112 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010667</t>
+          <t>014592</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安信价值回报三年持有期混合C</t>
+          <t>广发瑞誉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.14</t>
+          <t>93.40</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2162</t>
+        </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1029,7 +1006,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,7 +1027,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1080,36 +1057,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>014591</t>
+          <t>008954</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发瑞誉一年持有期混合A</t>
+          <t>安信价值回报三年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>38.60</t>
+          <t>35.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.40</t>
+          <t>89.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.0458</t>
+          <t>1.8498</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1118,112 +1095,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>014592</t>
+          <t>010667</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发瑞誉一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.08</t>
+          <t>安信价值回报三年持有期混合C</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.40</t>
+          <t>89.14</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2162</t>
-        </is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004316</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.55</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0202</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004317</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.55</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0148</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1237,96 +1131,202 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.3</v>
+          <t>008954</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0427</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010667</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
-        <v>6.16</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.07</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>